--- a/Objetos a imrpimir.xlsx
+++ b/Objetos a imrpimir.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="360" yWindow="45" windowWidth="24915" windowHeight="13350"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="General" sheetId="1" r:id="rId1"/>
+    <sheet name="JuegoI3" sheetId="2" r:id="rId2"/>
+    <sheet name="Tantillus" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="67">
   <si>
     <t>Pieza/s</t>
   </si>
@@ -75,7 +75,148 @@
     <t>Tapa fuente alimentación</t>
   </si>
   <si>
-    <t>PAL/ABS</t>
+    <t>Pieza</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Repuesto</t>
+  </si>
+  <si>
+    <t>Donación</t>
+  </si>
+  <si>
+    <t>belt guide</t>
+  </si>
+  <si>
+    <t>X carriage</t>
+  </si>
+  <si>
+    <t>X end idler</t>
+  </si>
+  <si>
+    <t>X end motor</t>
+  </si>
+  <si>
+    <t>Y belt holder</t>
+  </si>
+  <si>
+    <t>Y corners</t>
+  </si>
+  <si>
+    <t>Y idler</t>
+  </si>
+  <si>
+    <t>Y motor</t>
+  </si>
+  <si>
+    <t>Z axis bottom</t>
+  </si>
+  <si>
+    <t>Z axis top</t>
+  </si>
+  <si>
+    <t>Jonas's extruder</t>
+  </si>
+  <si>
+    <t>Extruder idler</t>
+  </si>
+  <si>
+    <t>Big gear</t>
+  </si>
+  <si>
+    <t>Small gear</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Z_lift</t>
+  </si>
+  <si>
+    <t>Corner_bottom</t>
+  </si>
+  <si>
+    <t>Endstop_holder</t>
+  </si>
+  <si>
+    <t>Extruder</t>
+  </si>
+  <si>
+    <t>Corner_top_front_left</t>
+  </si>
+  <si>
+    <t>Corner_top_front_right</t>
+  </si>
+  <si>
+    <t>Corner_top_rear_right</t>
+  </si>
+  <si>
+    <t>Extruder_large_v2</t>
+  </si>
+  <si>
+    <t>Extruder_idler</t>
+  </si>
+  <si>
+    <t>Corner_top_rear_left</t>
+  </si>
+  <si>
+    <t>Z_lower_bracket</t>
+  </si>
+  <si>
+    <t>Z_upper_bracket</t>
+  </si>
+  <si>
+    <t>XY_end_right</t>
+  </si>
+  <si>
+    <t>XY_end_left</t>
+  </si>
+  <si>
+    <t>Extruder_motor_mount_v2</t>
+  </si>
+  <si>
+    <t>Z_arm_1</t>
+  </si>
+  <si>
+    <t>Z_arm_2</t>
+  </si>
+  <si>
+    <t>Motor_Gear</t>
+  </si>
+  <si>
+    <t>50mm_fanmount_(LC)</t>
+  </si>
+  <si>
+    <t>Z_motor_bracket</t>
+  </si>
+  <si>
+    <t>Encoder_knob</t>
+  </si>
+  <si>
+    <t>printable-lm8uu-v3</t>
+  </si>
+  <si>
+    <t>Carriage top</t>
+  </si>
+  <si>
+    <t>Upper gear-SW</t>
+  </si>
+  <si>
+    <t>Carriage bottom</t>
+  </si>
+  <si>
+    <t>Z-coupler</t>
+  </si>
+  <si>
+    <t>Extruder_small_v2_(4mm)-SW</t>
+  </si>
+  <si>
+    <t>Bowden clamp</t>
+  </si>
+  <si>
+    <t>SD Card Reader Holder</t>
   </si>
 </sst>
 </file>
@@ -168,10 +309,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
@@ -477,7 +619,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +727,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -607,24 +749,660 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="79.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3">
+        <v>41556</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3">
+        <v>41556</v>
+      </c>
+      <c r="E8" s="3">
+        <v>41556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3">
+        <v>41556</v>
+      </c>
+      <c r="E9" s="3">
+        <v>41556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3">
+        <v>41555</v>
+      </c>
+      <c r="E14" s="3">
+        <v>41555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3">
+        <v>41555</v>
+      </c>
+      <c r="E15" s="3">
+        <v>41555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="3">
+        <v>41555</v>
+      </c>
+      <c r="E16" s="3">
+        <v>41555</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3">
+        <v>41551</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3">
+        <v>41552</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Objetos a imrpimir.xlsx
+++ b/Objetos a imrpimir.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="24915" windowHeight="13350"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="General" sheetId="1" r:id="rId1"/>
-    <sheet name="JuegoI3" sheetId="2" r:id="rId2"/>
-    <sheet name="Tantillus" sheetId="4" r:id="rId3"/>
+    <sheet name="General" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="JuegoI3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Tantillus" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -24,43 +25,43 @@
     <t>Material</t>
   </si>
   <si>
+    <t>Importancia</t>
+  </si>
+  <si>
+    <t>Duración</t>
+  </si>
+  <si>
+    <t>Plástico</t>
+  </si>
+  <si>
+    <t>Juego i3 repuesto</t>
+  </si>
+  <si>
+    <t>PLA/ABS</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Juego i3 donación</t>
+  </si>
+  <si>
+    <t>Extrusor hoten holandés</t>
+  </si>
+  <si>
     <t>ABS</t>
   </si>
   <si>
-    <t>Importancia</t>
-  </si>
-  <si>
-    <t>Alta</t>
-  </si>
-  <si>
-    <t>Juego i3 repuesto</t>
-  </si>
-  <si>
-    <t>Juego i3 donación</t>
-  </si>
-  <si>
-    <t>Extrusor hoten holandés</t>
+    <t>Media</t>
   </si>
   <si>
     <t>Extrusor hotend gallego</t>
   </si>
   <si>
-    <t>PLA/ABS</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Duración</t>
-  </si>
-  <si>
-    <t>Plástico</t>
-  </si>
-  <si>
     <t>Juego Tantillus</t>
   </si>
   <si>
-    <t xml:space="preserve">PLA </t>
+    <t>PLA </t>
   </si>
   <si>
     <t>Oblobot</t>
@@ -81,12 +82,12 @@
     <t>#</t>
   </si>
   <si>
+    <t>Donación</t>
+  </si>
+  <si>
     <t>Repuesto</t>
   </si>
   <si>
-    <t>Donación</t>
-  </si>
-  <si>
     <t>belt guide</t>
   </si>
   <si>
@@ -171,6 +172,9 @@
     <t>XY_end_right</t>
   </si>
   <si>
+    <t>printable-lm8uu-v3</t>
+  </si>
+  <si>
     <t>XY_end_left</t>
   </si>
   <si>
@@ -186,34 +190,31 @@
     <t>Motor_Gear</t>
   </si>
   <si>
+    <t>Carriage top</t>
+  </si>
+  <si>
+    <t>Upper gear-SW</t>
+  </si>
+  <si>
+    <t>Carriage bottom</t>
+  </si>
+  <si>
+    <t>Z-coupler</t>
+  </si>
+  <si>
+    <t>Extruder_small_v2_(4mm)-SW</t>
+  </si>
+  <si>
     <t>50mm_fanmount_(LC)</t>
   </si>
   <si>
+    <t>Bowden clamp</t>
+  </si>
+  <si>
     <t>Z_motor_bracket</t>
   </si>
   <si>
     <t>Encoder_knob</t>
-  </si>
-  <si>
-    <t>printable-lm8uu-v3</t>
-  </si>
-  <si>
-    <t>Carriage top</t>
-  </si>
-  <si>
-    <t>Upper gear-SW</t>
-  </si>
-  <si>
-    <t>Carriage bottom</t>
-  </si>
-  <si>
-    <t>Z-coupler</t>
-  </si>
-  <si>
-    <t>Extruder_small_v2_(4mm)-SW</t>
-  </si>
-  <si>
-    <t>Bowden clamp</t>
   </si>
   <si>
     <t>SD Card Reader Holder</t>
@@ -222,22 +223,41 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt formatCode="DD/MM/YYYY" numFmtId="165"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -250,384 +270,163 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
-    <border>
+  <borders count="2">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="21">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="4" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="20">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Check Cell" xfId="20"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B18" activeCellId="0" pane="topLeft" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.5748987854251"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,68 +434,68 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -704,12 +503,12 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -722,20 +521,20 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -743,25 +542,36 @@
       <c r="E9" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B22" activeCellId="0" pane="topLeft" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="79.42578125" bestFit="1" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="9" min="2" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="79.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.5748987854251"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -772,45 +582,49 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="2" t="n">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3">
-        <v>41556</v>
+      <c r="D2" s="3" t="n">
+        <v>41555</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="n">
+        <v>41556</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>41556</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -819,11 +633,11 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -832,24 +646,24 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -858,45 +672,45 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3">
-        <v>41556</v>
-      </c>
-      <c r="E8" s="3">
-        <v>41556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="n">
+        <v>41555</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>41555</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3">
-        <v>41556</v>
-      </c>
-      <c r="E9" s="3">
-        <v>41556</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="n">
+        <v>41555</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>41555</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="10">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -905,107 +719,121 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="n">
+        <v>41556</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>41556</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="13">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3">
-        <v>41555</v>
-      </c>
-      <c r="E14" s="3">
-        <v>41555</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="n">
+        <v>41554</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>41554</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="3">
-        <v>41555</v>
-      </c>
-      <c r="E15" s="3">
-        <v>41555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="n">
+        <v>41554</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>41554</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="3">
-        <v>41555</v>
-      </c>
-      <c r="E16" s="3">
-        <v>41555</v>
+      <c r="D16" s="3" t="n">
+        <v>41554</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>41554</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A30"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.1457489878543"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.5748987854251"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1019,14 +847,14 @@
         <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1035,26 +863,26 @@
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="n">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="3" t="n">
         <v>41551</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1063,11 +891,11 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1076,11 +904,11 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1089,11 +917,11 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1102,11 +930,11 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1115,11 +943,11 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1128,11 +956,11 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1141,26 +969,26 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="3" t="n">
         <v>41552</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1169,11 +997,11 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1182,11 +1010,11 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1195,11 +1023,11 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="2">
+        <v>51</v>
+      </c>
+      <c r="B15" s="2" t="n">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1208,11 +1036,11 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="2">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1221,24 +1049,24 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="2">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="2">
+        <v>54</v>
+      </c>
+      <c r="B18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1247,11 +1075,11 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="2">
+        <v>55</v>
+      </c>
+      <c r="B19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1260,11 +1088,11 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="2">
+        <v>56</v>
+      </c>
+      <c r="B20" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1273,11 +1101,11 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="2">
+        <v>57</v>
+      </c>
+      <c r="B21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1286,11 +1114,11 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="2">
+        <v>58</v>
+      </c>
+      <c r="B22" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1298,11 +1126,11 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="2">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1311,11 +1139,11 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="2">
+        <v>60</v>
+      </c>
+      <c r="B24" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1324,11 +1152,11 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="2">
+        <v>61</v>
+      </c>
+      <c r="B25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1337,11 +1165,11 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="2">
+        <v>62</v>
+      </c>
+      <c r="B26" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1349,11 +1177,11 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="2">
+        <v>63</v>
+      </c>
+      <c r="B27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1362,11 +1190,11 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="2">
+        <v>64</v>
+      </c>
+      <c r="B28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1375,11 +1203,11 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="2">
+        <v>65</v>
+      </c>
+      <c r="B29" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1388,11 +1216,11 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1402,7 +1230,12 @@
       <c r="E30" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Objetos a imrpimir.xlsx
+++ b/Objetos a imrpimir.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="General" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="JuegoI3" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Tantillus" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="General" sheetId="1" r:id="rId1"/>
+    <sheet name="JuegoI3" sheetId="2" r:id="rId2"/>
+    <sheet name="Tantillus" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -61,7 +60,7 @@
     <t>Juego Tantillus</t>
   </si>
   <si>
-    <t>PLA </t>
+    <t>PLA</t>
   </si>
   <si>
     <t>Oblobot</t>
@@ -223,12 +222,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="DD/MM/YYYY" numFmtId="165"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -237,22 +232,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -275,77 +255,46 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="4" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Check Cell" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -404,29 +353,324 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B18" activeCellId="0" pane="topLeft" sqref="B18"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.5748987854251"/>
+    <col min="1" max="1" width="22.85546875"/>
+    <col min="2" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -456,7 +700,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -469,7 +713,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -482,7 +726,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -495,7 +739,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -508,7 +752,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -521,7 +765,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -534,7 +778,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -542,36 +786,28 @@
       <c r="E9" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B22" activeCellId="0" pane="topLeft" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="9" min="2" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="79.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.5748987854251"/>
+    <col min="1" max="1" width="15.28515625"/>
+    <col min="2" max="9" width="10.5703125"/>
+    <col min="10" max="10" width="79.42578125"/>
+    <col min="11" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -588,43 +824,43 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="2">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="3">
         <v>41555</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="3">
         <v>41556</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="3">
         <v>41556</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -633,11 +869,11 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -646,11 +882,11 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -659,58 +895,60 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="4">
+        <v>41558</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="3">
         <v>41555</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="3">
         <v>41555</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="3">
         <v>41555</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="3">
         <v>41555</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -719,28 +957,28 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="3">
         <v>41556</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="3">
         <v>41556</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -749,91 +987,83 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="3">
         <v>41554</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="3">
         <v>41554</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="3">
         <v>41554</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="3">
         <v>41554</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="3">
         <v>41554</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="3">
         <v>41554</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4210526315789"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.1457489878543"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.5748987854251"/>
+    <col min="1" max="1" width="25.42578125"/>
+    <col min="2" max="2" width="5.28515625"/>
+    <col min="3" max="7" width="10.5703125"/>
+    <col min="8" max="8" width="14.140625"/>
+    <col min="9" max="9" width="25.140625"/>
+    <col min="10" max="10" width="7.7109375"/>
+    <col min="11" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -850,11 +1080,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -863,26 +1093,26 @@
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="3">
         <v>41551</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -891,11 +1121,11 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -904,11 +1134,11 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -917,11 +1147,11 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -930,11 +1160,11 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -943,11 +1173,11 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -956,11 +1186,11 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -969,26 +1199,26 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="3">
         <v>41552</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -997,11 +1227,11 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1010,11 +1240,11 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1023,11 +1253,11 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1036,11 +1266,11 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1049,11 +1279,11 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1062,11 +1292,11 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1075,11 +1305,11 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1088,11 +1318,11 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="2">
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1101,11 +1331,11 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="2">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1114,11 +1344,11 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="2">
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1126,11 +1356,11 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="2">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1139,11 +1369,11 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="2">
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1152,11 +1382,11 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="2">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1165,11 +1395,11 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="2">
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1177,11 +1407,11 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1190,11 +1420,11 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="2">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1203,11 +1433,11 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="2">
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1216,11 +1446,11 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="2">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1230,12 +1460,7 @@
       <c r="E30" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Objetos a imrpimir.xlsx
+++ b/Objetos a imrpimir.xlsx
@@ -796,7 +796,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,7 +892,9 @@
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="4">
+        <v>41570</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -954,7 +956,9 @@
       <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="4">
+        <v>41569</v>
+      </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">

--- a/Objetos a imrpimir.xlsx
+++ b/Objetos a imrpimir.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="70">
   <si>
     <t>Pieza/s</t>
   </si>
@@ -90,9 +90,6 @@
     <t>belt guide</t>
   </si>
   <si>
-    <t>X carriage</t>
-  </si>
-  <si>
     <t>X end idler</t>
   </si>
   <si>
@@ -217,6 +214,18 @@
   </si>
   <si>
     <t>SD Card Reader Holder</t>
+  </si>
+  <si>
+    <t>X carriage 20!!!</t>
+  </si>
+  <si>
+    <t>X carriage 24mm</t>
+  </si>
+  <si>
+    <t>X carriage 30mm</t>
+  </si>
+  <si>
+    <t>Orden</t>
   </si>
 </sst>
 </file>
@@ -282,12 +291,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,10 +805,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +853,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -858,97 +870,89 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4">
-        <v>41570</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4">
-        <v>41558</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3">
-        <v>41555</v>
-      </c>
-      <c r="E8" s="3">
-        <v>41555</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D8" s="4">
+        <v>41570</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3">
-        <v>41555</v>
-      </c>
-      <c r="E9" s="3">
-        <v>41555</v>
-      </c>
+      <c r="D9" s="4">
+        <v>41558</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -956,14 +960,16 @@
       <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4">
-        <v>41569</v>
-      </c>
-      <c r="E10" s="2"/>
+      <c r="D10" s="3">
+        <v>41555</v>
+      </c>
+      <c r="E10" s="3">
+        <v>41555</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -972,62 +978,60 @@
         <v>16</v>
       </c>
       <c r="D11" s="3">
-        <v>41556</v>
+        <v>41555</v>
       </c>
       <c r="E11" s="3">
-        <v>41556</v>
-      </c>
+        <v>41555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4">
+        <v>41569</v>
+      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="3">
-        <v>41554</v>
-      </c>
-      <c r="E14" s="3">
-        <v>41554</v>
+        <v>16</v>
+      </c>
+      <c r="D13" s="3">
+        <v>41556</v>
+      </c>
+      <c r="E13" s="3">
+        <v>41556</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3">
-        <v>41554</v>
-      </c>
-      <c r="E15" s="3">
-        <v>41554</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -1039,6 +1043,40 @@
         <v>41554</v>
       </c>
       <c r="E16" s="3">
+        <v>41554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3">
+        <v>41554</v>
+      </c>
+      <c r="E17" s="3">
+        <v>41554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="3">
+        <v>41554</v>
+      </c>
+      <c r="E18" s="3">
         <v>41554</v>
       </c>
     </row>
@@ -1050,24 +1088,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125"/>
     <col min="2" max="2" width="5.28515625"/>
-    <col min="3" max="7" width="10.5703125"/>
-    <col min="8" max="8" width="14.140625"/>
-    <col min="9" max="9" width="25.140625"/>
-    <col min="10" max="10" width="7.7109375"/>
-    <col min="11" max="1025" width="10.5703125"/>
+    <col min="4" max="8" width="10.5703125"/>
+    <col min="9" max="9" width="14.140625"/>
+    <col min="10" max="10" width="25.140625"/>
+    <col min="11" max="11" width="7.7109375"/>
+    <col min="12" max="1026" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1075,395 +1113,482 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3">
+        <v>41551</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3">
-        <v>41551</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3">
+        <v>41552</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2"/>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3">
-        <v>41552</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="2"/>
+      <c r="C21" s="2">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="2">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="B30" s="2">
         <v>1</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="A2:F30">
+    <sortCondition ref="C2:C30"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/Objetos a imrpimir.xlsx
+++ b/Objetos a imrpimir.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,8 +878,12 @@
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="3">
+        <v>41576</v>
+      </c>
+      <c r="E4" s="3">
+        <v>41576</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -891,7 +895,9 @@
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3">
+        <v>41576</v>
+      </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -917,7 +923,9 @@
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="4">
+        <v>41577</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1026,7 +1034,9 @@
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="4">
+        <v>41570</v>
+      </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1090,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Objetos a imrpimir.xlsx
+++ b/Objetos a imrpimir.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" state="visible" r:id="rId2"/>
@@ -366,7 +366,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="TableStyleLight1" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in TableStyleLight1" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -438,8 +438,8 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C15" activeCellId="0" pane="topLeft" sqref="C15"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C15" activeCellId="1" pane="topLeft" sqref="E12 C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -584,7 +584,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F5" activeCellId="0" pane="topLeft" sqref="F5"/>
+      <selection activeCell="F5" activeCellId="1" pane="topLeft" sqref="E12 F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -886,8 +886,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A43" activeCellId="0" pane="topLeft" sqref="A43"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E12" activeCellId="0" pane="topLeft" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -958,7 +958,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
@@ -971,10 +971,12 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="n">
+        <v>41585</v>
+      </c>
       <c r="F4" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -987,10 +989,12 @@
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3" t="n">
+        <v>41586</v>
+      </c>
       <c r="F5" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
@@ -1003,10 +1007,12 @@
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3" t="n">
+        <v>41586</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
       <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
@@ -1019,10 +1025,12 @@
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3" t="n">
+        <v>41588</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1035,7 +1043,9 @@
       <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="3" t="n">
+        <v>41588</v>
+      </c>
       <c r="F8" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
@@ -1054,7 +1064,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="10">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
@@ -1067,10 +1077,12 @@
       <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="n">
+        <v>41585</v>
+      </c>
       <c r="F10" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
       <c r="A11" s="2" t="s">
         <v>49</v>
       </c>
@@ -1083,10 +1095,12 @@
       <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="n">
+        <v>41588</v>
+      </c>
       <c r="F11" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
       <c r="A12" s="2" t="s">
         <v>50</v>
       </c>
@@ -1099,7 +1113,9 @@
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="n">
+        <v>41588</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">

--- a/Objetos a imrpimir.xlsx
+++ b/Objetos a imrpimir.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="General" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="JuegoI3" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Tantillus" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="General" sheetId="1" r:id="rId1"/>
+    <sheet name="JuegoI3" sheetId="2" r:id="rId2"/>
+    <sheet name="Tantillus" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
   <si>
     <t>Pieza/s</t>
   </si>
@@ -224,17 +223,25 @@
   </si>
   <si>
     <t>SD Card Reader Holder</t>
+  </si>
+  <si>
+    <t>Hecho</t>
+  </si>
+  <si>
+    <t>Extrusor catnoozle</t>
+  </si>
+  <si>
+    <t>REDISEÑAR!!</t>
+  </si>
+  <si>
+    <t>Imprimiendo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="DD/MM/YYYY" numFmtId="165"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -243,22 +250,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -281,93 +273,49 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="4" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in TableStyleLight1" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -426,31 +374,328 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C15" activeCellId="1" pane="topLeft" sqref="E12 C15"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.753036437247"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.5708502024292"/>
+    <col min="1" max="1" width="22.85546875"/>
+    <col min="2" max="2" width="10.5703125"/>
+    <col min="3" max="3" width="11.7109375"/>
+    <col min="4" max="5" width="10.5703125"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,8 +711,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -479,8 +727,9 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -492,8 +741,11 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
+      <c r="F3" s="3">
+        <v>41583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -505,10 +757,11 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -518,84 +771,104 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+      <c r="F5" s="3">
+        <v>41581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+      <c r="F7" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
+      <c r="F9" s="3">
+        <v>40854</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F5" activeCellId="1" pane="topLeft" sqref="E12 F5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" activeCellId="1" sqref="E12 F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="9" min="2" style="0" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="79.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.5708502024292"/>
+    <col min="1" max="1" width="15.28515625"/>
+    <col min="2" max="9" width="10.5703125"/>
+    <col min="10" max="10" width="79.42578125"/>
+    <col min="11" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -612,297 +885,288 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="2">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="3">
         <v>41555</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="3">
         <v>41556</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="3">
         <v>41556</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="3">
         <v>41576</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="3">
         <v>41576</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="3">
         <v>41576</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="3">
         <v>41578</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="4">
         <v>41577</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="4">
         <v>41570</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="4">
         <v>41558</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="3">
         <v>41555</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="3">
         <v>41555</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="3">
         <v>41555</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="3">
         <v>41555</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="4">
         <v>41569</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="3">
         <v>41556</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="3">
         <v>41556</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="4">
         <v>41570</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="3">
         <v>41554</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="3">
         <v>41554</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="3">
         <v>41554</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="3">
         <v>41554</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="3">
         <v>41554</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="3">
         <v>41554</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E12" activeCellId="0" pane="topLeft" sqref="E12"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4210526315789"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.1457489878543"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.5708502024292"/>
+    <col min="1" max="1" width="25.42578125"/>
+    <col min="2" max="2" width="5.28515625"/>
+    <col min="4" max="8" width="10.5703125"/>
+    <col min="9" max="9" width="14.140625"/>
+    <col min="10" max="10" width="25.140625"/>
+    <col min="11" max="11" width="7.7109375"/>
+    <col min="12" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -922,210 +1186,212 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="2">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="3">
         <v>41551</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="n">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="3">
         <v>41552</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="n">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="3">
         <v>41585</v>
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="3">
         <v>41586</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="n">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="3">
         <v>41586</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="n">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="3">
         <v>41588</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="n">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="3">
         <v>41588</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="n">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="3">
+        <v>41588</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="3">
         <v>41585</v>
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="3">
         <v>41588</v>
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3">
         <v>41588</v>
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1134,14 +1400,14 @@
       <c r="E13" s="5"/>
       <c r="F13" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="2">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1150,14 +1416,14 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="n">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1166,14 +1432,14 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="n">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1182,14 +1448,14 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="n">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1198,14 +1464,14 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="n">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1214,14 +1480,14 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="n">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1230,14 +1496,14 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="n">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1246,14 +1512,14 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="n">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1262,14 +1528,14 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="n">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1278,14 +1544,14 @@
       <c r="E22" s="6"/>
       <c r="F22" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="n">
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1294,14 +1560,14 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="n">
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1310,14 +1576,14 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="n">
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1326,14 +1592,14 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="2">
         <v>2</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="2">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1342,11 +1608,11 @@
       <c r="E26" s="7"/>
       <c r="F26" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" s="2"/>
@@ -1356,11 +1622,11 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="2">
         <v>2</v>
       </c>
       <c r="C28" s="2"/>
@@ -1370,11 +1636,11 @@
       <c r="E28" s="5"/>
       <c r="F28" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="2">
         <v>1</v>
       </c>
       <c r="C29" s="2"/>
@@ -1384,11 +1650,11 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="2">
         <v>1</v>
       </c>
       <c r="C30" s="2"/>
@@ -1399,12 +1665,7 @@
       <c r="F30" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Objetos a imrpimir.xlsx
+++ b/Objetos a imrpimir.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="JuegoI3" sheetId="2" r:id="rId2"/>
     <sheet name="Tantillus" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -300,7 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -308,7 +308,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,7 +855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" activeCellId="1" sqref="E12 F5"/>
     </sheetView>
   </sheetViews>
@@ -1151,13 +1150,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.28515625"/>
     <col min="4" max="8" width="10.5703125"/>
     <col min="9" max="9" width="14.140625"/>
@@ -1397,7 +1396,9 @@
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="3">
+        <v>41590</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1413,7 +1414,9 @@
       <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3">
+        <v>41590</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1429,7 +1432,9 @@
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="4">
+        <v>41591</v>
+      </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1445,7 +1450,9 @@
       <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>41592</v>
+      </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1461,7 +1468,9 @@
       <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="3">
+        <v>41593</v>
+      </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1477,7 +1486,9 @@
       <c r="D18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="3">
+        <v>41593</v>
+      </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1493,7 +1504,9 @@
       <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="3">
+        <v>41592</v>
+      </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1509,7 +1522,9 @@
       <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="4">
+        <v>41594</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1525,7 +1540,9 @@
       <c r="D21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="4">
+        <v>41594</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1541,7 +1558,9 @@
       <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="6">
+        <v>41595</v>
+      </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1557,7 +1576,9 @@
       <c r="D23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="4">
+        <v>41596</v>
+      </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1573,7 +1594,9 @@
       <c r="D24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="4">
+        <v>41596</v>
+      </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1589,7 +1612,9 @@
       <c r="D25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="4">
+        <v>41596</v>
+      </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1605,7 +1630,9 @@
       <c r="D26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="E26" s="4">
+        <v>41596</v>
+      </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1615,11 +1642,15 @@
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2">
+        <v>26</v>
+      </c>
       <c r="D27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="4">
+        <v>41596</v>
+      </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
